--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Área de Trabalho\SISTEMA FOXMIX\planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8C3B1-FFDC-4EFE-AE9F-9168D80526A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07A5C9-275A-413F-B8C9-007087867EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C75765E-A5A5-4A69-8CEF-DA2E03309064}"/>
+    <workbookView xWindow="4470" yWindow="345" windowWidth="16020" windowHeight="7875" xr2:uid="{AFD2FD33-1D3A-44D7-948A-87D860EB3265}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5812" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5920" uniqueCount="1371">
   <si>
     <t>300924</t>
   </si>
@@ -4005,6 +4005,105 @@
   </si>
   <si>
     <t>4506266943</t>
+  </si>
+  <si>
+    <t>85707</t>
+  </si>
+  <si>
+    <t>BOT488A</t>
+  </si>
+  <si>
+    <t>BOTÃO FRANCES ZAMAC  ZB  CT02 PÇS</t>
+  </si>
+  <si>
+    <t>4501641785</t>
+  </si>
+  <si>
+    <t>VED001S</t>
+  </si>
+  <si>
+    <t>VEDA FRESTA POLIPR.5MMX5M CINZA</t>
+  </si>
+  <si>
+    <t>POR137S</t>
+  </si>
+  <si>
+    <t>PORCA SEXTAV. UNC 5/16" 7,9MM CT10PÇS</t>
+  </si>
+  <si>
+    <t>FIX245S</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA P/FIOS DUPLOS/MEDIOS CT10PÇS</t>
+  </si>
+  <si>
+    <t>FEC011S</t>
+  </si>
+  <si>
+    <t>FECHO CONTATO ADESIVO 25MMX2,5M BRANCO</t>
+  </si>
+  <si>
+    <t>CPF002S</t>
+  </si>
+  <si>
+    <t>CONECTOR DERIV PARAF FENDIDO 2,5 A 35MM CT01PÇ</t>
+  </si>
+  <si>
+    <t>BUO016-4S</t>
+  </si>
+  <si>
+    <t>BUCHA M.U 8MM NYLON C/PARAF.CH. CT100PÇS</t>
+  </si>
+  <si>
+    <t>ARU447S</t>
+  </si>
+  <si>
+    <t>ARRUELA FERRO LISA 3/8" CT04PÇS</t>
+  </si>
+  <si>
+    <t>ABR192S</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA TIPO U 1/2" CT02PÇS</t>
+  </si>
+  <si>
+    <t>ABR016S</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA DE NYLON 2,5X100MM TRANSPARENTE CT30PÇS</t>
+  </si>
+  <si>
+    <t>4501641825</t>
+  </si>
+  <si>
+    <t>REB167-1S</t>
+  </si>
+  <si>
+    <t>REBITE DE ALUMÍNIO 4,0X10MM CX200PÇS</t>
+  </si>
+  <si>
+    <t>PMB598S</t>
+  </si>
+  <si>
+    <t>BUCHA 5MM NYLON C/ANEL C/PARAF.A.A. CAB. PANELA 3,5X25 CT10PÇS</t>
+  </si>
+  <si>
+    <t>HAS009S</t>
+  </si>
+  <si>
+    <t>HASTE P/ATERRAMENTO COBRE 11,11MMX2,4M</t>
+  </si>
+  <si>
+    <t>DOB007S</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA DE PRESSÃO 26MM ALTA - PQN CT01PÇ</t>
+  </si>
+  <si>
+    <t>BUF583S</t>
+  </si>
+  <si>
+    <t>BUCHA FLY N.2 NYLON P/PLACA DE GESSO 4/16MM C/PARAF AGLO CAB PAN 4,0X40 CT20PÇS</t>
   </si>
   <si>
     <t>X</t>
@@ -4056,6 +4155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4109,7 +4211,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4444,8 +4546,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9A93C9-834A-40F6-A9E9-6F5AE3086977}">
-  <dimension ref="A1:O803"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950F213-D122-4C5F-BE08-9D0BE600E922}">
+  <dimension ref="A1:O820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4468,49 +4570,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1323</v>
+        <v>1356</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1325</v>
+        <v>1358</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1326</v>
+        <v>1359</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1327</v>
+        <v>1360</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1328</v>
+        <v>1361</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1329</v>
+        <v>1362</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1330</v>
+        <v>1363</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1331</v>
+        <v>1364</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1332</v>
+        <v>1365</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1334</v>
+        <v>1367</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1335</v>
+        <v>1368</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1336</v>
+        <v>1369</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5197,7 +5299,7 @@
         <v>350</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J16" s="1">
         <v>350</v>
@@ -7362,13 +7464,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>5</v>
+      <c r="L62" s="4">
+        <v>45601</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>5</v>
@@ -7926,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L74" s="4">
-        <v>45596</v>
+      <c r="L74" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>5</v>
@@ -9098,7 +9200,7 @@
         <v>250</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J99" s="1">
         <v>250</v>
@@ -18071,7 +18173,7 @@
         <v>15</v>
       </c>
       <c r="I290" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J290" s="1">
         <v>15</v>
@@ -19617,13 +19719,13 @@
         <v>0</v>
       </c>
       <c r="J323" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K323" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L323" s="4" t="s">
-        <v>5</v>
+      <c r="L323" s="4">
+        <v>45600</v>
       </c>
       <c r="M323" s="4" t="s">
         <v>5</v>
@@ -21826,13 +21928,13 @@
         <v>0</v>
       </c>
       <c r="J370" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K370" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L370" s="4" t="s">
-        <v>5</v>
+      <c r="L370" s="4">
+        <v>45601</v>
       </c>
       <c r="M370" s="4" t="s">
         <v>5</v>
@@ -22249,13 +22351,13 @@
         <v>0</v>
       </c>
       <c r="J379" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K379" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L379" s="4" t="s">
-        <v>5</v>
+      <c r="L379" s="4">
+        <v>45601</v>
       </c>
       <c r="M379" s="4" t="s">
         <v>5</v>
@@ -23842,7 +23944,7 @@
         <v>700</v>
       </c>
       <c r="I413" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J413" s="1">
         <v>700</v>
@@ -24124,7 +24226,7 @@
         <v>550</v>
       </c>
       <c r="I419" s="1">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="J419" s="1">
         <v>410</v>
@@ -24594,7 +24696,7 @@
         <v>25</v>
       </c>
       <c r="I429" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J429" s="1">
         <v>25</v>
@@ -25530,16 +25632,16 @@
         <v>30</v>
       </c>
       <c r="I449" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J449" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K449" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L449" s="4" t="s">
-        <v>5</v>
+      <c r="L449" s="4">
+        <v>45600</v>
       </c>
       <c r="M449" s="4" t="s">
         <v>5</v>
@@ -26658,16 +26760,16 @@
         <v>50</v>
       </c>
       <c r="I473" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J473" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K473" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L473" s="4" t="s">
-        <v>5</v>
+      <c r="L473" s="4">
+        <v>45600</v>
       </c>
       <c r="M473" s="4" t="s">
         <v>5</v>
@@ -28114,13 +28216,13 @@
         <v>0</v>
       </c>
       <c r="J504" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K504" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L504" s="4" t="s">
-        <v>5</v>
+      <c r="L504" s="4">
+        <v>45601</v>
       </c>
       <c r="M504" s="4" t="s">
         <v>5</v>
@@ -28299,7 +28401,7 @@
         <v>30</v>
       </c>
       <c r="I508" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J508" s="1">
         <v>30</v>
@@ -28769,7 +28871,7 @@
         <v>50</v>
       </c>
       <c r="I518" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J518" s="1">
         <v>50</v>
@@ -29284,7 +29386,7 @@
         <v>130</v>
       </c>
       <c r="I529" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J529" s="1">
         <v>130</v>
@@ -29331,7 +29433,7 @@
         <v>100</v>
       </c>
       <c r="I530" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J530" s="1">
         <v>100</v>
@@ -29378,7 +29480,7 @@
         <v>140</v>
       </c>
       <c r="I531" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J531" s="1">
         <v>140</v>
@@ -29425,7 +29527,7 @@
         <v>50</v>
       </c>
       <c r="I532" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J532" s="1">
         <v>50</v>
@@ -29472,7 +29574,7 @@
         <v>60</v>
       </c>
       <c r="I533" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J533" s="1">
         <v>60</v>
@@ -29519,7 +29621,7 @@
         <v>140</v>
       </c>
       <c r="I534" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J534" s="1">
         <v>140</v>
@@ -29566,7 +29668,7 @@
         <v>60</v>
       </c>
       <c r="I535" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J535" s="1">
         <v>60</v>
@@ -29613,7 +29715,7 @@
         <v>70</v>
       </c>
       <c r="I536" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J536" s="1">
         <v>70</v>
@@ -29660,7 +29762,7 @@
         <v>90</v>
       </c>
       <c r="I537" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J537" s="1">
         <v>90</v>
@@ -29707,7 +29809,7 @@
         <v>120</v>
       </c>
       <c r="I538" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J538" s="1">
         <v>120</v>
@@ -29754,7 +29856,7 @@
         <v>50</v>
       </c>
       <c r="I539" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J539" s="1">
         <v>50</v>
@@ -29801,7 +29903,7 @@
         <v>110</v>
       </c>
       <c r="I540" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J540" s="1">
         <v>110</v>
@@ -29895,7 +29997,7 @@
         <v>80</v>
       </c>
       <c r="I542" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J542" s="1">
         <v>80</v>
@@ -30036,7 +30138,7 @@
         <v>70</v>
       </c>
       <c r="I545" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J545" s="1">
         <v>70</v>
@@ -30083,7 +30185,7 @@
         <v>30</v>
       </c>
       <c r="I546" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J546" s="1">
         <v>30</v>
@@ -30224,7 +30326,7 @@
         <v>130</v>
       </c>
       <c r="I549" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J549" s="1">
         <v>130</v>
@@ -30365,7 +30467,7 @@
         <v>110</v>
       </c>
       <c r="I552" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J552" s="1">
         <v>110</v>
@@ -30506,7 +30608,7 @@
         <v>10</v>
       </c>
       <c r="I555" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J555" s="1">
         <v>10</v>
@@ -30600,7 +30702,7 @@
         <v>20</v>
       </c>
       <c r="I557" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J557" s="1">
         <v>20</v>
@@ -30647,7 +30749,7 @@
         <v>100</v>
       </c>
       <c r="I558" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J558" s="1">
         <v>100</v>
@@ -32151,7 +32253,7 @@
         <v>30</v>
       </c>
       <c r="I590" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J590" s="1">
         <v>30</v>
@@ -32245,7 +32347,7 @@
         <v>30</v>
       </c>
       <c r="I592" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J592" s="1">
         <v>30</v>
@@ -32433,7 +32535,7 @@
         <v>30</v>
       </c>
       <c r="I596" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J596" s="1">
         <v>30</v>
@@ -32480,7 +32582,7 @@
         <v>30</v>
       </c>
       <c r="I597" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J597" s="1">
         <v>30</v>
@@ -32715,7 +32817,7 @@
         <v>30</v>
       </c>
       <c r="I602" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J602" s="1">
         <v>30</v>
@@ -32856,7 +32958,7 @@
         <v>30</v>
       </c>
       <c r="I605" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J605" s="1">
         <v>30</v>
@@ -33232,7 +33334,7 @@
         <v>30</v>
       </c>
       <c r="I613" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J613" s="1">
         <v>30</v>
@@ -33279,7 +33381,7 @@
         <v>30</v>
       </c>
       <c r="I614" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J614" s="1">
         <v>30</v>
@@ -33326,7 +33428,7 @@
         <v>30</v>
       </c>
       <c r="I615" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J615" s="1">
         <v>30</v>
@@ -33467,7 +33569,7 @@
         <v>30</v>
       </c>
       <c r="I618" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J618" s="1">
         <v>20</v>
@@ -33937,7 +34039,7 @@
         <v>30</v>
       </c>
       <c r="I628" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J628" s="1">
         <v>30</v>
@@ -34078,7 +34180,7 @@
         <v>30</v>
       </c>
       <c r="I631" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J631" s="1">
         <v>30</v>
@@ -34125,7 +34227,7 @@
         <v>30</v>
       </c>
       <c r="I632" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J632" s="1">
         <v>30</v>
@@ -34454,7 +34556,7 @@
         <v>30</v>
       </c>
       <c r="I639" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J639" s="1">
         <v>30</v>
@@ -34548,7 +34650,7 @@
         <v>30</v>
       </c>
       <c r="I641" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J641" s="1">
         <v>30</v>
@@ -34689,7 +34791,7 @@
         <v>30</v>
       </c>
       <c r="I644" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J644" s="1">
         <v>30</v>
@@ -34736,7 +34838,7 @@
         <v>30</v>
       </c>
       <c r="I645" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J645" s="1">
         <v>30</v>
@@ -34783,7 +34885,7 @@
         <v>30</v>
       </c>
       <c r="I646" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J646" s="1">
         <v>30</v>
@@ -35112,7 +35214,7 @@
         <v>30</v>
       </c>
       <c r="I653" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J653" s="1">
         <v>30</v>
@@ -35159,7 +35261,7 @@
         <v>30</v>
       </c>
       <c r="I654" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J654" s="1">
         <v>30</v>
@@ -35253,7 +35355,7 @@
         <v>30</v>
       </c>
       <c r="I656" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J656" s="1">
         <v>20</v>
@@ -35488,7 +35590,7 @@
         <v>30</v>
       </c>
       <c r="I661" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J661" s="1">
         <v>30</v>
@@ -35817,7 +35919,7 @@
         <v>30</v>
       </c>
       <c r="I668" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J668" s="1">
         <v>30</v>
@@ -35911,7 +36013,7 @@
         <v>30</v>
       </c>
       <c r="I670" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J670" s="1">
         <v>30</v>
@@ -36099,7 +36201,7 @@
         <v>30</v>
       </c>
       <c r="I674" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J674" s="1">
         <v>30</v>
@@ -36149,13 +36251,13 @@
         <v>0</v>
       </c>
       <c r="J675" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K675" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L675" s="4" t="s">
-        <v>5</v>
+      <c r="L675" s="4">
+        <v>45601</v>
       </c>
       <c r="M675" s="4" t="s">
         <v>5</v>
@@ -36645,7 +36747,7 @@
         <v>5</v>
       </c>
       <c r="I686" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J686" s="1">
         <v>5</v>
@@ -36692,7 +36794,7 @@
         <v>10</v>
       </c>
       <c r="I687" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J687" s="1">
         <v>10</v>
@@ -36739,7 +36841,7 @@
         <v>20</v>
       </c>
       <c r="I688" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J688" s="1">
         <v>20</v>
@@ -37115,7 +37217,7 @@
         <v>20</v>
       </c>
       <c r="I696" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J696" s="1">
         <v>20</v>
@@ -37165,13 +37267,13 @@
         <v>0</v>
       </c>
       <c r="J697" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K697" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L697" s="4" t="s">
-        <v>5</v>
+      <c r="L697" s="4">
+        <v>45601</v>
       </c>
       <c r="M697" s="4" t="s">
         <v>5</v>
@@ -37209,7 +37311,7 @@
         <v>100</v>
       </c>
       <c r="I698" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J698" s="1">
         <v>100</v>
@@ -37256,7 +37358,7 @@
         <v>25</v>
       </c>
       <c r="I699" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J699" s="1">
         <v>25</v>
@@ -37306,13 +37408,13 @@
         <v>0</v>
       </c>
       <c r="J700" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K700" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L700" s="4" t="s">
-        <v>5</v>
+      <c r="L700" s="4">
+        <v>45601</v>
       </c>
       <c r="M700" s="4" t="s">
         <v>5</v>
@@ -37350,7 +37452,7 @@
         <v>1800</v>
       </c>
       <c r="I701" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J701" s="1">
         <v>1800</v>
@@ -37400,13 +37502,13 @@
         <v>0</v>
       </c>
       <c r="J702" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K702" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L702" s="4" t="s">
-        <v>5</v>
+      <c r="L702" s="4">
+        <v>45597</v>
       </c>
       <c r="M702" s="4" t="s">
         <v>5</v>
@@ -37538,7 +37640,7 @@
         <v>840</v>
       </c>
       <c r="I705" s="1">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="J705" s="1">
         <v>840</v>
@@ -37867,7 +37969,7 @@
         <v>50</v>
       </c>
       <c r="I712" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J712" s="1">
         <v>50</v>
@@ -37961,7 +38063,7 @@
         <v>7440</v>
       </c>
       <c r="I714" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J714" s="1">
         <v>3000</v>
@@ -38528,13 +38630,13 @@
         <v>0</v>
       </c>
       <c r="J726" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K726" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L726" s="4" t="s">
-        <v>5</v>
+      <c r="L726" s="4">
+        <v>45601</v>
       </c>
       <c r="M726" s="4" t="s">
         <v>5</v>
@@ -38619,7 +38721,7 @@
         <v>30</v>
       </c>
       <c r="I728" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J728" s="1">
         <v>30</v>
@@ -38666,7 +38768,7 @@
         <v>30</v>
       </c>
       <c r="I729" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J729" s="1">
         <v>30</v>
@@ -38713,7 +38815,7 @@
         <v>6</v>
       </c>
       <c r="I730" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J730" s="1">
         <v>6</v>
@@ -38854,7 +38956,7 @@
         <v>10</v>
       </c>
       <c r="I733" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J733" s="1">
         <v>10</v>
@@ -38901,7 +39003,7 @@
         <v>30</v>
       </c>
       <c r="I734" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J734" s="1">
         <v>30</v>
@@ -38948,7 +39050,7 @@
         <v>10</v>
       </c>
       <c r="I735" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J735" s="1">
         <v>10</v>
@@ -38995,7 +39097,7 @@
         <v>40</v>
       </c>
       <c r="I736" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J736" s="1">
         <v>40</v>
@@ -39042,7 +39144,7 @@
         <v>30</v>
       </c>
       <c r="I737" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J737" s="1">
         <v>30</v>
@@ -39089,7 +39191,7 @@
         <v>30</v>
       </c>
       <c r="I738" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J738" s="1">
         <v>30</v>
@@ -39136,7 +39238,7 @@
         <v>30</v>
       </c>
       <c r="I739" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J739" s="1">
         <v>30</v>
@@ -39183,7 +39285,7 @@
         <v>10</v>
       </c>
       <c r="I740" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J740" s="1">
         <v>10</v>
@@ -39230,16 +39332,16 @@
         <v>30</v>
       </c>
       <c r="I741" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J741" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K741" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L741" s="4" t="s">
-        <v>5</v>
+      <c r="L741" s="4">
+        <v>45601</v>
       </c>
       <c r="M741" s="4" t="s">
         <v>5</v>
@@ -39277,7 +39379,7 @@
         <v>30</v>
       </c>
       <c r="I742" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J742" s="1">
         <v>30</v>
@@ -39286,7 +39388,7 @@
         <v>4</v>
       </c>
       <c r="L742" s="4">
-        <v>45595</v>
+        <v>45601</v>
       </c>
       <c r="M742" s="4" t="s">
         <v>5</v>
@@ -39656,13 +39758,13 @@
         <v>0</v>
       </c>
       <c r="J750" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K750" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L750" s="4" t="s">
-        <v>5</v>
+      <c r="L750" s="4">
+        <v>45600</v>
       </c>
       <c r="M750" s="4" t="s">
         <v>5</v>
@@ -40878,13 +40980,13 @@
         <v>0</v>
       </c>
       <c r="J776" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K776" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L776" s="4" t="s">
-        <v>5</v>
+      <c r="L776" s="4">
+        <v>45600</v>
       </c>
       <c r="M776" s="4" t="s">
         <v>5</v>
@@ -42083,21 +42185,820 @@
       </c>
     </row>
     <row r="803" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A803" s="1"/>
-      <c r="B803" s="1"/>
-      <c r="C803" s="2"/>
-      <c r="D803" s="3"/>
-      <c r="E803" s="2"/>
-      <c r="F803" s="2"/>
-      <c r="G803" s="2"/>
-      <c r="H803" s="1"/>
-      <c r="I803" s="1"/>
-      <c r="J803" s="1"/>
-      <c r="K803" s="2"/>
-      <c r="L803" s="4"/>
-      <c r="M803" s="4"/>
-      <c r="N803" s="4"/>
-      <c r="O803" s="2"/>
+      <c r="A803" s="1">
+        <v>0</v>
+      </c>
+      <c r="B803" s="1">
+        <v>98380</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D803" s="3">
+        <v>9546200</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H803" s="1">
+        <v>80</v>
+      </c>
+      <c r="I803" s="1">
+        <v>0</v>
+      </c>
+      <c r="J803" s="1">
+        <v>80</v>
+      </c>
+      <c r="K803" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L803" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M803" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N803" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O803" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>0</v>
+      </c>
+      <c r="B804" s="1">
+        <v>98381</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D804" s="3">
+        <v>9547100</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F804" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G804" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H804" s="1">
+        <v>50</v>
+      </c>
+      <c r="I804" s="1">
+        <v>0</v>
+      </c>
+      <c r="J804" s="1">
+        <v>50</v>
+      </c>
+      <c r="K804" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L804" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M804" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N804" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O804" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>0</v>
+      </c>
+      <c r="B805" s="1">
+        <v>98382</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D805" s="3">
+        <v>9547000</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G805" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H805" s="1">
+        <v>25</v>
+      </c>
+      <c r="I805" s="1">
+        <v>0</v>
+      </c>
+      <c r="J805" s="1">
+        <v>25</v>
+      </c>
+      <c r="K805" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L805" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M805" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N805" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O805" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>0</v>
+      </c>
+      <c r="B806" s="1">
+        <v>98383</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D806" s="3">
+        <v>9546900</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H806" s="1">
+        <v>100</v>
+      </c>
+      <c r="I806" s="1">
+        <v>0</v>
+      </c>
+      <c r="J806" s="1">
+        <v>100</v>
+      </c>
+      <c r="K806" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L806" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M806" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N806" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O806" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>0</v>
+      </c>
+      <c r="B807" s="1">
+        <v>98384</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D807" s="3">
+        <v>9546800</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H807" s="1">
+        <v>30</v>
+      </c>
+      <c r="I807" s="1">
+        <v>0</v>
+      </c>
+      <c r="J807" s="1">
+        <v>0</v>
+      </c>
+      <c r="K807" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L807" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M807" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N807" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O807" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>0</v>
+      </c>
+      <c r="B808" s="1">
+        <v>98385</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D808" s="3">
+        <v>9546700</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H808" s="1">
+        <v>70</v>
+      </c>
+      <c r="I808" s="1">
+        <v>0</v>
+      </c>
+      <c r="J808" s="1">
+        <v>70</v>
+      </c>
+      <c r="K808" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L808" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M808" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N808" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O808" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>0</v>
+      </c>
+      <c r="B809" s="1">
+        <v>98386</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D809" s="3">
+        <v>9546600</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H809" s="1">
+        <v>10</v>
+      </c>
+      <c r="I809" s="1">
+        <v>0</v>
+      </c>
+      <c r="J809" s="1">
+        <v>10</v>
+      </c>
+      <c r="K809" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L809" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M809" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N809" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O809" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>0</v>
+      </c>
+      <c r="B810" s="1">
+        <v>98387</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D810" s="3">
+        <v>9546500</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H810" s="1">
+        <v>25</v>
+      </c>
+      <c r="I810" s="1">
+        <v>0</v>
+      </c>
+      <c r="J810" s="1">
+        <v>25</v>
+      </c>
+      <c r="K810" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L810" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M810" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N810" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O810" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>0</v>
+      </c>
+      <c r="B811" s="1">
+        <v>98388</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D811" s="3">
+        <v>9546400</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H811" s="1">
+        <v>500</v>
+      </c>
+      <c r="I811" s="1">
+        <v>0</v>
+      </c>
+      <c r="J811" s="1">
+        <v>0</v>
+      </c>
+      <c r="K811" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L811" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M811" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N811" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O811" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>0</v>
+      </c>
+      <c r="B812" s="1">
+        <v>98389</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D812" s="3">
+        <v>9546300</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H812" s="1">
+        <v>100</v>
+      </c>
+      <c r="I812" s="1">
+        <v>0</v>
+      </c>
+      <c r="J812" s="1">
+        <v>100</v>
+      </c>
+      <c r="K812" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L812" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M812" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N812" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O812" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>0</v>
+      </c>
+      <c r="B813" s="1">
+        <v>98390</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D813" s="3">
+        <v>9547800</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H813" s="1">
+        <v>20</v>
+      </c>
+      <c r="I813" s="1">
+        <v>0</v>
+      </c>
+      <c r="J813" s="1">
+        <v>20</v>
+      </c>
+      <c r="K813" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L813" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M813" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N813" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O813" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>0</v>
+      </c>
+      <c r="B814" s="1">
+        <v>98391</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D814" s="3">
+        <v>9547700</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H814" s="1">
+        <v>200</v>
+      </c>
+      <c r="I814" s="1">
+        <v>0</v>
+      </c>
+      <c r="J814" s="1">
+        <v>200</v>
+      </c>
+      <c r="K814" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L814" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M814" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N814" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O814" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>0</v>
+      </c>
+      <c r="B815" s="1">
+        <v>98392</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D815" s="3">
+        <v>9547600</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H815" s="1">
+        <v>343</v>
+      </c>
+      <c r="I815" s="1">
+        <v>0</v>
+      </c>
+      <c r="J815" s="1">
+        <v>210</v>
+      </c>
+      <c r="K815" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L815" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M815" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N815" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O815" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>0</v>
+      </c>
+      <c r="B816" s="1">
+        <v>98393</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D816" s="3">
+        <v>9547500</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H816" s="1">
+        <v>50</v>
+      </c>
+      <c r="I816" s="1">
+        <v>0</v>
+      </c>
+      <c r="J816" s="1">
+        <v>50</v>
+      </c>
+      <c r="K816" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L816" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M816" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N816" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O816" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>0</v>
+      </c>
+      <c r="B817" s="1">
+        <v>98394</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D817" s="3">
+        <v>9547400</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H817" s="1">
+        <v>225</v>
+      </c>
+      <c r="I817" s="1">
+        <v>0</v>
+      </c>
+      <c r="J817" s="1">
+        <v>225</v>
+      </c>
+      <c r="K817" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L817" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M817" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N817" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O817" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>0</v>
+      </c>
+      <c r="B818" s="1">
+        <v>98395</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D818" s="3">
+        <v>9547300</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H818" s="1">
+        <v>70</v>
+      </c>
+      <c r="I818" s="1">
+        <v>0</v>
+      </c>
+      <c r="J818" s="1">
+        <v>0</v>
+      </c>
+      <c r="K818" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L818" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M818" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N818" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O818" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>0</v>
+      </c>
+      <c r="B819" s="1">
+        <v>98396</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D819" s="3">
+        <v>9547200</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G819" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H819" s="1">
+        <v>50</v>
+      </c>
+      <c r="I819" s="1">
+        <v>0</v>
+      </c>
+      <c r="J819" s="1">
+        <v>50</v>
+      </c>
+      <c r="K819" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L819" s="4">
+        <v>45602</v>
+      </c>
+      <c r="M819" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N819" s="4">
+        <v>45609</v>
+      </c>
+      <c r="O819" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A820" s="1"/>
+      <c r="B820" s="1"/>
+      <c r="C820" s="2"/>
+      <c r="D820" s="3"/>
+      <c r="E820" s="2"/>
+      <c r="F820" s="2"/>
+      <c r="G820" s="2"/>
+      <c r="H820" s="1"/>
+      <c r="I820" s="1"/>
+      <c r="J820" s="1"/>
+      <c r="K820" s="2"/>
+      <c r="L820" s="4"/>
+      <c r="M820" s="4"/>
+      <c r="N820" s="4"/>
+      <c r="O820" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BA5BC0-C2D9-475F-9FC8-D89D5C35C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94F06C-8024-4B1D-881C-B3025BB3BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2580" windowWidth="16020" windowHeight="7875" xr2:uid="{12E0D618-6518-478D-8E22-7AA77F55C5C6}"/>
+    <workbookView xWindow="4470" yWindow="90" windowWidth="16020" windowHeight="7875" xr2:uid="{A3DECA7A-C71F-47AF-89AB-23654185BC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5985" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1395">
   <si>
     <t>300924</t>
   </si>
@@ -4161,6 +4161,21 @@
   </si>
   <si>
     <t>PREGO COMUM C/C 8X8 CT30PÇS</t>
+  </si>
+  <si>
+    <t>OPD14-8938733</t>
+  </si>
+  <si>
+    <t>BUO040A</t>
+  </si>
+  <si>
+    <t>BUCHA  MULTI USO DRYWALL BLOCO OCO 8MM C/PARAF PAN CT02PC</t>
+  </si>
+  <si>
+    <t>BUO039A</t>
+  </si>
+  <si>
+    <t>BUCHA PLÁSTICA M.U DRYWALL BLOCO OCO 6MM C/PARAF PAN CT03PC</t>
   </si>
   <si>
     <t>X</t>
@@ -4603,12 +4618,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CDA23D-2360-4FC3-8284-48FC2BA2D2B5}">
-  <dimension ref="A1:O831"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA88918-4CF5-4DF0-949F-A9810F852E59}">
+  <dimension ref="A1:O833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4629,49 +4642,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5123,16 +5136,16 @@
         <v>100</v>
       </c>
       <c r="I11" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="4">
-        <v>45575</v>
+        <v>45604</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>5</v>
@@ -6865,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>5</v>
+      <c r="L48" s="4">
+        <v>45604</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>5</v>
@@ -20013,13 +20026,13 @@
         <v>0</v>
       </c>
       <c r="J328" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K328" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L328" s="4" t="s">
-        <v>5</v>
+      <c r="L328" s="4">
+        <v>45604</v>
       </c>
       <c r="M328" s="4" t="s">
         <v>5</v>
@@ -34812,7 +34825,7 @@
         <v>4</v>
       </c>
       <c r="L643" s="4">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="M643" s="4" t="s">
         <v>5</v>
@@ -37138,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="J693" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K693" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L693" s="4" t="s">
-        <v>5</v>
+      <c r="L693" s="4">
+        <v>45604</v>
       </c>
       <c r="M693" s="4" t="s">
         <v>5</v>
@@ -37981,16 +37994,16 @@
         <v>80</v>
       </c>
       <c r="I711" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J711" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K711" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L711" s="4">
-        <v>45595</v>
+        <v>45604</v>
       </c>
       <c r="M711" s="4" t="s">
         <v>5</v>
@@ -38924,13 +38937,13 @@
         <v>0</v>
       </c>
       <c r="J731" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K731" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L731" s="4">
-        <v>45604</v>
+      <c r="L731" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M731" s="4" t="s">
         <v>5</v>
@@ -38971,13 +38984,13 @@
         <v>0</v>
       </c>
       <c r="J732" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K732" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L732" s="4">
-        <v>45604</v>
+      <c r="L732" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M732" s="4" t="s">
         <v>5</v>
@@ -40099,13 +40112,13 @@
         <v>0</v>
       </c>
       <c r="J756" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K756" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L756" s="4">
-        <v>45604</v>
+      <c r="L756" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M756" s="4" t="s">
         <v>5</v>
@@ -42363,7 +42376,7 @@
         <v>25</v>
       </c>
       <c r="I805" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J805" s="1">
         <v>25</v>
@@ -42410,7 +42423,7 @@
         <v>100</v>
       </c>
       <c r="I806" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J806" s="1">
         <v>100</v>
@@ -42504,7 +42517,7 @@
         <v>70</v>
       </c>
       <c r="I808" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J808" s="1">
         <v>70</v>
@@ -42786,7 +42799,7 @@
         <v>200</v>
       </c>
       <c r="I814" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J814" s="1">
         <v>200</v>
@@ -42927,7 +42940,7 @@
         <v>225</v>
       </c>
       <c r="I817" s="1">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="J817" s="1">
         <v>225</v>
@@ -43021,7 +43034,7 @@
         <v>50</v>
       </c>
       <c r="I819" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J819" s="1">
         <v>50</v>
@@ -43560,21 +43573,115 @@
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
-      <c r="B831" s="1"/>
-      <c r="C831" s="2"/>
-      <c r="D831" s="3"/>
-      <c r="E831" s="2"/>
-      <c r="F831" s="2"/>
-      <c r="G831" s="2"/>
-      <c r="H831" s="1"/>
-      <c r="I831" s="1"/>
-      <c r="J831" s="1"/>
-      <c r="K831" s="2"/>
-      <c r="L831" s="4"/>
-      <c r="M831" s="4"/>
-      <c r="N831" s="4"/>
-      <c r="O831" s="2"/>
+      <c r="A831" s="1">
+        <v>0</v>
+      </c>
+      <c r="B831" s="1">
+        <v>98408</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D831" s="3">
+        <v>9549100</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G831" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H831" s="1">
+        <v>100</v>
+      </c>
+      <c r="I831" s="1">
+        <v>0</v>
+      </c>
+      <c r="J831" s="1">
+        <v>0</v>
+      </c>
+      <c r="K831" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L831" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M831" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N831" s="4">
+        <v>45611</v>
+      </c>
+      <c r="O831" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>0</v>
+      </c>
+      <c r="B832" s="1">
+        <v>98409</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D832" s="3">
+        <v>9549000</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G832" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H832" s="1">
+        <v>100</v>
+      </c>
+      <c r="I832" s="1">
+        <v>0</v>
+      </c>
+      <c r="J832" s="1">
+        <v>0</v>
+      </c>
+      <c r="K832" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L832" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M832" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N832" s="4">
+        <v>45611</v>
+      </c>
+      <c r="O832" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A833" s="1"/>
+      <c r="B833" s="1"/>
+      <c r="C833" s="2"/>
+      <c r="D833" s="3"/>
+      <c r="E833" s="2"/>
+      <c r="F833" s="2"/>
+      <c r="G833" s="2"/>
+      <c r="H833" s="1"/>
+      <c r="I833" s="1"/>
+      <c r="J833" s="1"/>
+      <c r="K833" s="2"/>
+      <c r="L833" s="4"/>
+      <c r="M833" s="4"/>
+      <c r="N833" s="4"/>
+      <c r="O833" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Área de Trabalho\SISTEMA FOXMIX\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B9EE3-F38B-465D-9909-E684005F6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF1E80-BE40-4023-A014-DBA45C28FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{320C1520-89A9-45D3-B1A4-0DFE371F81F5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$O$743</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$O$737</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5393" uniqueCount="1335">
   <si>
     <t>300924</t>
   </si>
@@ -4051,7 +4051,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -4101,13 +4101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4446,7 +4450,7 @@
   <dimension ref="A1:O744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C747" sqref="C747"/>
+      <selection activeCell="L745" sqref="L745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39058,30 +39062,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>0</v>
       </c>
       <c r="B737" s="1">
-        <v>98786</v>
+        <v>98792</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>1318</v>
       </c>
       <c r="D737" s="3">
-        <v>9587400</v>
+        <v>9586800</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="F737" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G737" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H737" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I737" s="1">
         <v>0</v>
@@ -39105,315 +39109,340 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1">
-        <v>0</v>
-      </c>
-      <c r="B738" s="1">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A738" s="6">
+        <v>0</v>
+      </c>
+      <c r="B738" s="6">
+        <v>98786</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D738" s="8">
+        <v>9587400</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="F738" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="G738" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H738" s="6">
+        <v>30</v>
+      </c>
+      <c r="I738" s="6">
+        <v>0</v>
+      </c>
+      <c r="J738" s="6">
+        <v>30</v>
+      </c>
+      <c r="K738" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L738" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M738" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N738" s="9">
+        <v>45615</v>
+      </c>
+      <c r="O738" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A739" s="6">
+        <v>0</v>
+      </c>
+      <c r="B739" s="6">
         <v>98787</v>
       </c>
-      <c r="C738" s="2" t="s">
+      <c r="C739" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D738" s="3">
+      <c r="D739" s="8">
         <v>9587300</v>
       </c>
-      <c r="E738" s="2" t="s">
+      <c r="E739" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F738" s="2" t="s">
+      <c r="F739" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G738" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H738" s="1">
+      <c r="G739" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H739" s="6">
         <v>80</v>
       </c>
-      <c r="I738" s="1">
-        <v>0</v>
-      </c>
-      <c r="J738" s="1">
-        <v>0</v>
-      </c>
-      <c r="K738" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L738" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M738" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N738" s="4">
+      <c r="I739" s="6">
+        <v>0</v>
+      </c>
+      <c r="J739" s="6">
+        <v>60</v>
+      </c>
+      <c r="K739" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L739" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M739" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N739" s="9">
         <v>45615</v>
       </c>
-      <c r="O738" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="1">
-        <v>0</v>
-      </c>
-      <c r="B739" s="1">
+      <c r="O739" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A740" s="6">
+        <v>0</v>
+      </c>
+      <c r="B740" s="6">
         <v>98788</v>
       </c>
-      <c r="C739" s="2" t="s">
+      <c r="C740" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D739" s="3">
+      <c r="D740" s="8">
         <v>9587200</v>
       </c>
-      <c r="E739" s="2" t="s">
+      <c r="E740" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F739" s="2" t="s">
+      <c r="F740" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G739" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H739" s="1">
-        <v>30</v>
-      </c>
-      <c r="I739" s="1">
-        <v>0</v>
-      </c>
-      <c r="J739" s="1">
-        <v>0</v>
-      </c>
-      <c r="K739" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L739" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M739" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N739" s="4">
+      <c r="G740" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H740" s="6">
+        <v>30</v>
+      </c>
+      <c r="I740" s="6">
+        <v>0</v>
+      </c>
+      <c r="J740" s="6">
+        <v>30</v>
+      </c>
+      <c r="K740" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L740" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M740" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N740" s="9">
         <v>45615</v>
       </c>
-      <c r="O739" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="1">
-        <v>0</v>
-      </c>
-      <c r="B740" s="1">
+      <c r="O740" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A741" s="6">
+        <v>0</v>
+      </c>
+      <c r="B741" s="6">
         <v>98789</v>
       </c>
-      <c r="C740" s="2" t="s">
+      <c r="C741" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D740" s="3">
+      <c r="D741" s="8">
         <v>9587100</v>
       </c>
-      <c r="E740" s="2" t="s">
+      <c r="E741" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F740" s="2" t="s">
+      <c r="F741" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G740" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H740" s="1">
-        <v>30</v>
-      </c>
-      <c r="I740" s="1">
-        <v>0</v>
-      </c>
-      <c r="J740" s="1">
-        <v>0</v>
-      </c>
-      <c r="K740" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L740" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M740" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N740" s="4">
+      <c r="G741" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H741" s="6">
+        <v>30</v>
+      </c>
+      <c r="I741" s="6">
+        <v>0</v>
+      </c>
+      <c r="J741" s="6">
+        <v>30</v>
+      </c>
+      <c r="K741" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L741" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M741" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N741" s="9">
         <v>45615</v>
       </c>
-      <c r="O740" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1">
-        <v>0</v>
-      </c>
-      <c r="B741" s="1">
+      <c r="O741" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A742" s="6">
+        <v>0</v>
+      </c>
+      <c r="B742" s="6">
         <v>98790</v>
       </c>
-      <c r="C741" s="2" t="s">
+      <c r="C742" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D741" s="3">
+      <c r="D742" s="8">
         <v>9587000</v>
       </c>
-      <c r="E741" s="2" t="s">
+      <c r="E742" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F741" s="2" t="s">
+      <c r="F742" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G741" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H741" s="1">
-        <v>30</v>
-      </c>
-      <c r="I741" s="1">
-        <v>0</v>
-      </c>
-      <c r="J741" s="1">
-        <v>0</v>
-      </c>
-      <c r="K741" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L741" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M741" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N741" s="4">
+      <c r="G742" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H742" s="6">
+        <v>30</v>
+      </c>
+      <c r="I742" s="6">
+        <v>0</v>
+      </c>
+      <c r="J742" s="6">
+        <v>30</v>
+      </c>
+      <c r="K742" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L742" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M742" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N742" s="9">
         <v>45615</v>
       </c>
-      <c r="O741" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="1">
-        <v>0</v>
-      </c>
-      <c r="B742" s="1">
+      <c r="O742" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A743" s="6">
+        <v>0</v>
+      </c>
+      <c r="B743" s="6">
         <v>98791</v>
       </c>
-      <c r="C742" s="2" t="s">
+      <c r="C743" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D742" s="3">
+      <c r="D743" s="8">
         <v>9586900</v>
       </c>
-      <c r="E742" s="2" t="s">
+      <c r="E743" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="F742" s="2" t="s">
+      <c r="F743" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="G742" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H742" s="1">
-        <v>10</v>
-      </c>
-      <c r="I742" s="1">
-        <v>0</v>
-      </c>
-      <c r="J742" s="1">
-        <v>0</v>
-      </c>
-      <c r="K742" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L742" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M742" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N742" s="4">
+      <c r="G743" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H743" s="6">
+        <v>10</v>
+      </c>
+      <c r="I743" s="6">
+        <v>0</v>
+      </c>
+      <c r="J743" s="6">
+        <v>0</v>
+      </c>
+      <c r="K743" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L743" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M743" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N743" s="9">
         <v>45615</v>
       </c>
-      <c r="O742" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="1">
-        <v>0</v>
-      </c>
-      <c r="B743" s="1">
+      <c r="O743" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A744" s="6">
+        <v>0</v>
+      </c>
+      <c r="B744" s="6">
         <v>98792</v>
       </c>
-      <c r="C743" s="2" t="s">
+      <c r="C744" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D743" s="3">
+      <c r="D744" s="8">
         <v>9586800</v>
       </c>
-      <c r="E743" s="2" t="s">
+      <c r="E744" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="F743" s="2" t="s">
+      <c r="F744" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="G743" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H743" s="1">
-        <v>10</v>
-      </c>
-      <c r="I743" s="1">
-        <v>0</v>
-      </c>
-      <c r="J743" s="1">
-        <v>0</v>
-      </c>
-      <c r="K743" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L743" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M743" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N743" s="4">
+      <c r="G744" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H744" s="6">
+        <v>10</v>
+      </c>
+      <c r="I744" s="6">
+        <v>0</v>
+      </c>
+      <c r="J744" s="6">
+        <v>10</v>
+      </c>
+      <c r="K744" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L744" s="9">
+        <v>45609</v>
+      </c>
+      <c r="M744" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N744" s="9">
         <v>45615</v>
       </c>
-      <c r="O743" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
-      <c r="B744" s="1"/>
-      <c r="C744" s="2"/>
-      <c r="D744" s="3"/>
-      <c r="E744" s="2"/>
-      <c r="F744" s="2"/>
-      <c r="G744" s="2"/>
-      <c r="H744" s="1"/>
-      <c r="I744" s="1"/>
-      <c r="J744" s="1"/>
-      <c r="K744" s="2"/>
-      <c r="L744" s="4"/>
-      <c r="M744" s="4"/>
-      <c r="N744" s="4"/>
-      <c r="O744" s="2"/>
+      <c r="O744" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O743" xr:uid="{3BF8D697-2DF6-4EC1-90AC-BA1744729D77}">
+  <autoFilter ref="A1:O737" xr:uid="{3BF8D697-2DF6-4EC1-90AC-BA1744729D77}">
     <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="ESTOQUE FOX"/>
-        <filter val="FANAN/TERUYA"/>
-        <filter val="HC FOX 11.11.24"/>
-        <filter val="SODIMAC 27.08"/>
-        <filter val="TELHA 14.10.24"/>
-        <filter val="TELHA 18.10.24"/>
+      <filters>
+        <filter val="SALDO TELHANORTE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A09C856-9D12-4BB8-BEAE-0AA3EF056559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212C011-F6B8-4381-BE8C-9CD2663C43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03BC23B5-9669-4959-B478-260C1F8DBA84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3129F0B9-D699-4CB5-A210-F2597A995DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$O$1560</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$O$1571</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11239" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11339" uniqueCount="2056">
   <si>
     <t>300924</t>
   </si>
@@ -6144,6 +6144,24 @@
   </si>
   <si>
     <t>ABRAÇADEIRA DE NYLON 4,5X280MM PRETA CT100PÇS</t>
+  </si>
+  <si>
+    <t>7500069305</t>
+  </si>
+  <si>
+    <t>PAR005S</t>
+  </si>
+  <si>
+    <t>PARAF. ROSCA ESQUERDA M5 PARA MANDRIL CT02PÇ</t>
+  </si>
+  <si>
+    <t>ESC006S</t>
+  </si>
+  <si>
+    <t>CARVÃO SERRA MÁRMORE 1548  CT02PÇS</t>
+  </si>
+  <si>
+    <t>7500069294</t>
   </si>
   <si>
     <t>X</t>
@@ -6586,16 +6604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235CADC5-18BF-4F7E-95FF-E278A1C899B9}">
-  <dimension ref="A1:O1561"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE63BF-D187-4821-904A-44940DAD45F7}">
+  <dimension ref="A1:O1572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1544" workbookViewId="0">
-      <selection activeCell="E1559" sqref="E1559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -6612,49 +6630,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>2049</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -64261,13 +64279,13 @@
         <v>0</v>
       </c>
       <c r="J1227" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1227" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1227" s="4">
-        <v>45615</v>
+      <c r="L1227" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1227" s="4" t="s">
         <v>5</v>
@@ -64402,13 +64420,13 @@
         <v>0</v>
       </c>
       <c r="J1230" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K1230" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1230" s="4">
-        <v>45615</v>
+      <c r="L1230" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1230" s="4" t="s">
         <v>5</v>
@@ -65530,13 +65548,13 @@
         <v>0</v>
       </c>
       <c r="J1254" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K1254" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1254" s="4">
-        <v>45615</v>
+      <c r="L1254" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1254" s="4" t="s">
         <v>5</v>
@@ -68068,13 +68086,13 @@
         <v>0</v>
       </c>
       <c r="J1308" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1308" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1308" s="4" t="s">
-        <v>5</v>
+      <c r="L1308" s="4">
+        <v>45624</v>
       </c>
       <c r="M1308" s="4" t="s">
         <v>5</v>
@@ -68209,13 +68227,13 @@
         <v>0</v>
       </c>
       <c r="J1311" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1311" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1311" s="4" t="s">
-        <v>5</v>
+      <c r="L1311" s="4">
+        <v>45624</v>
       </c>
       <c r="M1311" s="4" t="s">
         <v>5</v>
@@ -68961,13 +68979,13 @@
         <v>0</v>
       </c>
       <c r="J1327" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K1327" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1327" s="4" t="s">
-        <v>5</v>
+      <c r="L1327" s="4">
+        <v>45624</v>
       </c>
       <c r="M1327" s="4" t="s">
         <v>5</v>
@@ -69337,13 +69355,13 @@
         <v>0</v>
       </c>
       <c r="J1335" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1335" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1335" s="4">
-        <v>45623</v>
+      <c r="L1335" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1335" s="4" t="s">
         <v>5</v>
@@ -71358,13 +71376,13 @@
         <v>0</v>
       </c>
       <c r="J1378" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K1378" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1378" s="4">
-        <v>45623</v>
+      <c r="L1378" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1378" s="4" t="s">
         <v>5</v>
@@ -73567,13 +73585,13 @@
         <v>0</v>
       </c>
       <c r="J1425" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K1425" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1425" s="4">
-        <v>45623</v>
+      <c r="L1425" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1425" s="4" t="s">
         <v>5</v>
@@ -73708,13 +73726,13 @@
         <v>0</v>
       </c>
       <c r="J1428" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K1428" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1428" s="4">
-        <v>45623</v>
+      <c r="L1428" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1428" s="4" t="s">
         <v>5</v>
@@ -74272,13 +74290,13 @@
         <v>0</v>
       </c>
       <c r="J1440" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K1440" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1440" s="4">
-        <v>45623</v>
+      <c r="L1440" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1440" s="4" t="s">
         <v>5</v>
@@ -74460,13 +74478,13 @@
         <v>0</v>
       </c>
       <c r="J1444" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K1444" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1444" s="4">
-        <v>45623</v>
+      <c r="L1444" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1444" s="4" t="s">
         <v>5</v>
@@ -76340,13 +76358,13 @@
         <v>0</v>
       </c>
       <c r="J1484" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K1484" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1484" s="4">
-        <v>45623</v>
+      <c r="L1484" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1484" s="4" t="s">
         <v>5</v>
@@ -76434,13 +76452,13 @@
         <v>0</v>
       </c>
       <c r="J1486" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K1486" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1486" s="4">
-        <v>45623</v>
+      <c r="L1486" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1486" s="4" t="s">
         <v>5</v>
@@ -76528,13 +76546,13 @@
         <v>0</v>
       </c>
       <c r="J1488" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K1488" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1488" s="4">
-        <v>45623</v>
+      <c r="L1488" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1488" s="4" t="s">
         <v>5</v>
@@ -78737,13 +78755,13 @@
         <v>0</v>
       </c>
       <c r="J1535" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K1535" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1535" s="4">
-        <v>45623</v>
+      <c r="L1535" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1535" s="4" t="s">
         <v>5</v>
@@ -79301,13 +79319,13 @@
         <v>0</v>
       </c>
       <c r="J1547" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K1547" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1547" s="4">
-        <v>45623</v>
+      <c r="L1547" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1547" s="4" t="s">
         <v>5</v>
@@ -79442,13 +79460,13 @@
         <v>0</v>
       </c>
       <c r="J1550" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K1550" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1550" s="4">
-        <v>45623</v>
+      <c r="L1550" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1550" s="4" t="s">
         <v>5</v>
@@ -79931,24 +79949,541 @@
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1561" s="1"/>
-      <c r="B1561" s="1"/>
-      <c r="C1561" s="2"/>
-      <c r="D1561" s="3"/>
-      <c r="E1561" s="2"/>
-      <c r="F1561" s="2"/>
-      <c r="G1561" s="2"/>
-      <c r="H1561" s="1"/>
-      <c r="I1561" s="1"/>
-      <c r="J1561" s="1"/>
-      <c r="K1561" s="2"/>
-      <c r="L1561" s="4"/>
-      <c r="M1561" s="4"/>
-      <c r="N1561" s="4"/>
-      <c r="O1561" s="2"/>
+      <c r="A1561" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>99628</v>
+      </c>
+      <c r="C1561" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1561" s="3">
+        <v>9671200</v>
+      </c>
+      <c r="E1561" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1561" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1561" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1561" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1561" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1561" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1561" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1561" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1561" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1561" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1561" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1562" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>99629</v>
+      </c>
+      <c r="C1562" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1562" s="3">
+        <v>9671100</v>
+      </c>
+      <c r="E1562" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F1562" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1562" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1562" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1562" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1562" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1562" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1562" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1562" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1562" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1563" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>99630</v>
+      </c>
+      <c r="C1563" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1563" s="3">
+        <v>9671000</v>
+      </c>
+      <c r="E1563" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F1563" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G1563" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1563" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1563" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1563" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1563" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1563" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1563" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1563" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1563" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1564" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>99631</v>
+      </c>
+      <c r="C1564" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1564" s="3">
+        <v>9670900</v>
+      </c>
+      <c r="E1564" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1564" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G1564" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1564" s="1">
+        <v>20</v>
+      </c>
+      <c r="I1564" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1564" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1564" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1564" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1564" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1564" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1564" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1565" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>99632</v>
+      </c>
+      <c r="C1565" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1565" s="3">
+        <v>9670800</v>
+      </c>
+      <c r="E1565" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F1565" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G1565" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1565" s="1">
+        <v>20</v>
+      </c>
+      <c r="I1565" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1565" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1565" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1565" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1565" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1565" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1565" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1566" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>99633</v>
+      </c>
+      <c r="C1566" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1566" s="3">
+        <v>9670700</v>
+      </c>
+      <c r="E1566" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1566" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1566" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1566" s="1">
+        <v>20</v>
+      </c>
+      <c r="I1566" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1566" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1566" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1566" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1566" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1566" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1566" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1567" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>99634</v>
+      </c>
+      <c r="C1567" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1567" s="3">
+        <v>9670600</v>
+      </c>
+      <c r="E1567" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F1567" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G1567" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1567" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1567" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1567" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1567" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1567" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1567" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1567" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1567" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1568" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>99635</v>
+      </c>
+      <c r="C1568" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1568" s="3">
+        <v>9670500</v>
+      </c>
+      <c r="E1568" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1568" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1568" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1568" s="1">
+        <v>20</v>
+      </c>
+      <c r="I1568" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1568" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1568" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1568" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1568" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1568" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1568" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1569" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>99636</v>
+      </c>
+      <c r="C1569" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D1569" s="3">
+        <v>9670400</v>
+      </c>
+      <c r="E1569" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F1569" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G1569" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1569" s="1">
+        <v>30</v>
+      </c>
+      <c r="I1569" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1569" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1569" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1569" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1569" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1569" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1569" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1570" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>99637</v>
+      </c>
+      <c r="C1570" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D1570" s="3">
+        <v>9670300</v>
+      </c>
+      <c r="E1570" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F1570" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G1570" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1570" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1570" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1570" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1570" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1570" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1570" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1570" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1570" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1571" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>99638</v>
+      </c>
+      <c r="C1571" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D1571" s="3">
+        <v>9670200</v>
+      </c>
+      <c r="E1571" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F1571" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G1571" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1571" s="1">
+        <v>50</v>
+      </c>
+      <c r="I1571" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1571" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1571" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1571" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1571" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1571" s="4">
+        <v>45631</v>
+      </c>
+      <c r="O1571" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1572" s="1"/>
+      <c r="B1572" s="1"/>
+      <c r="C1572" s="2"/>
+      <c r="D1572" s="3"/>
+      <c r="E1572" s="2"/>
+      <c r="F1572" s="2"/>
+      <c r="G1572" s="2"/>
+      <c r="H1572" s="1"/>
+      <c r="I1572" s="1"/>
+      <c r="J1572" s="1"/>
+      <c r="K1572" s="2"/>
+      <c r="L1572" s="4"/>
+      <c r="M1572" s="4"/>
+      <c r="N1572" s="4"/>
+      <c r="O1572" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1560" xr:uid="{235CADC5-18BF-4F7E-95FF-E278A1C899B9}"/>
+  <autoFilter ref="A1:O1571" xr:uid="{D1AE63BF-D187-4821-904A-44940DAD45F7}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Área de Trabalho\SISTEMA FOXMIX\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038EBC87-D389-4F2A-BE4A-5781939BBA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAEBC61-CB19-4595-9B53-C4CB58A9EEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD680802-FED2-4630-B2B0-708D548F19E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87D38E70-0177-4C2C-A8AB-A7E3C615615B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11965" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11949" uniqueCount="2108">
   <si>
     <t>300924</t>
   </si>
@@ -6369,9 +6369,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6425,7 +6422,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6760,11 +6757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC334CDE-9BE2-41B6-A2F3-9C838CFC5E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA902E7-E144-445B-9F04-EA9962645622}">
   <dimension ref="A1:O1660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32613,7 +32610,7 @@
         <v>30</v>
       </c>
       <c r="I550" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J550" s="1">
         <v>30</v>
@@ -36091,7 +36088,7 @@
         <v>100</v>
       </c>
       <c r="I624" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J624" s="1">
         <v>100</v>
@@ -38911,7 +38908,7 @@
         <v>30</v>
       </c>
       <c r="I684" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J684" s="1">
         <v>30</v>
@@ -39052,7 +39049,7 @@
         <v>30</v>
       </c>
       <c r="I687" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J687" s="1">
         <v>30</v>
@@ -39099,7 +39096,7 @@
         <v>30</v>
       </c>
       <c r="I688" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J688" s="1">
         <v>30</v>
@@ -40277,13 +40274,13 @@
         <v>0</v>
       </c>
       <c r="J713" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K713" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L713" s="4" t="s">
-        <v>5</v>
+      <c r="L713" s="4">
+        <v>45625</v>
       </c>
       <c r="M713" s="4" t="s">
         <v>5</v>
@@ -41590,7 +41587,7 @@
         <v>30</v>
       </c>
       <c r="I741" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J741" s="1">
         <v>30</v>
@@ -42013,7 +42010,7 @@
         <v>30</v>
       </c>
       <c r="I750" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J750" s="1">
         <v>30</v>
@@ -63022,7 +63019,7 @@
         <v>50</v>
       </c>
       <c r="I1197" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J1197" s="1">
         <v>50</v>
@@ -63163,7 +63160,7 @@
         <v>100</v>
       </c>
       <c r="I1200" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J1200" s="1">
         <v>100</v>
@@ -63257,7 +63254,7 @@
         <v>30</v>
       </c>
       <c r="I1202" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1202" s="1">
         <v>30</v>
@@ -63351,7 +63348,7 @@
         <v>30</v>
       </c>
       <c r="I1204" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1204" s="1">
         <v>30</v>
@@ -63398,7 +63395,7 @@
         <v>10</v>
       </c>
       <c r="I1205" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1205" s="1">
         <v>10</v>
@@ -63445,7 +63442,7 @@
         <v>5</v>
       </c>
       <c r="I1206" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1206" s="1">
         <v>5</v>
@@ -63492,7 +63489,7 @@
         <v>30</v>
       </c>
       <c r="I1207" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1207" s="1">
         <v>30</v>
@@ -63539,7 +63536,7 @@
         <v>30</v>
       </c>
       <c r="I1208" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1208" s="1">
         <v>30</v>
@@ -63586,7 +63583,7 @@
         <v>30</v>
       </c>
       <c r="I1209" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1209" s="1">
         <v>30</v>
@@ -63633,7 +63630,7 @@
         <v>30</v>
       </c>
       <c r="I1210" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1210" s="1">
         <v>30</v>
@@ -63680,7 +63677,7 @@
         <v>30</v>
       </c>
       <c r="I1211" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1211" s="1">
         <v>30</v>
@@ -63727,7 +63724,7 @@
         <v>30</v>
       </c>
       <c r="I1212" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1212" s="1">
         <v>30</v>
@@ -63821,7 +63818,7 @@
         <v>30</v>
       </c>
       <c r="I1214" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1214" s="1">
         <v>30</v>
@@ -63868,7 +63865,7 @@
         <v>30</v>
       </c>
       <c r="I1215" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1215" s="1">
         <v>30</v>
@@ -63915,7 +63912,7 @@
         <v>30</v>
       </c>
       <c r="I1216" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1216" s="1">
         <v>30</v>
@@ -63962,7 +63959,7 @@
         <v>10</v>
       </c>
       <c r="I1217" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1217" s="1">
         <v>10</v>
@@ -64009,7 +64006,7 @@
         <v>5</v>
       </c>
       <c r="I1218" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1218" s="1">
         <v>5</v>
@@ -64056,7 +64053,7 @@
         <v>30</v>
       </c>
       <c r="I1219" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1219" s="1">
         <v>30</v>
@@ -64103,7 +64100,7 @@
         <v>30</v>
       </c>
       <c r="I1220" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1220" s="1">
         <v>30</v>
@@ -64150,7 +64147,7 @@
         <v>30</v>
       </c>
       <c r="I1221" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1221" s="1">
         <v>30</v>
@@ -64197,7 +64194,7 @@
         <v>30</v>
       </c>
       <c r="I1222" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1222" s="1">
         <v>30</v>
@@ -64291,7 +64288,7 @@
         <v>12</v>
       </c>
       <c r="I1224" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J1224" s="1">
         <v>12</v>
@@ -64385,7 +64382,7 @@
         <v>20</v>
       </c>
       <c r="I1226" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1226" s="1">
         <v>20</v>
@@ -64479,7 +64476,7 @@
         <v>30</v>
       </c>
       <c r="I1228" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1228" s="1">
         <v>30</v>
@@ -64526,7 +64523,7 @@
         <v>20</v>
       </c>
       <c r="I1229" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1229" s="1">
         <v>20</v>
@@ -64620,7 +64617,7 @@
         <v>30</v>
       </c>
       <c r="I1231" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1231" s="1">
         <v>30</v>
@@ -64667,7 +64664,7 @@
         <v>30</v>
       </c>
       <c r="I1232" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1232" s="1">
         <v>30</v>
@@ -64761,7 +64758,7 @@
         <v>30</v>
       </c>
       <c r="I1234" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1234" s="1">
         <v>30</v>
@@ -64808,7 +64805,7 @@
         <v>5</v>
       </c>
       <c r="I1235" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1235" s="1">
         <v>5</v>
@@ -64855,7 +64852,7 @@
         <v>30</v>
       </c>
       <c r="I1236" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1236" s="1">
         <v>30</v>
@@ -64902,7 +64899,7 @@
         <v>30</v>
       </c>
       <c r="I1237" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1237" s="1">
         <v>30</v>
@@ -64949,7 +64946,7 @@
         <v>30</v>
       </c>
       <c r="I1238" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1238" s="1">
         <v>30</v>
@@ -64996,7 +64993,7 @@
         <v>50</v>
       </c>
       <c r="I1239" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J1239" s="1">
         <v>50</v>
@@ -65043,7 +65040,7 @@
         <v>20</v>
       </c>
       <c r="I1240" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1240" s="1">
         <v>20</v>
@@ -65090,7 +65087,7 @@
         <v>30</v>
       </c>
       <c r="I1241" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1241" s="1">
         <v>30</v>
@@ -65137,7 +65134,7 @@
         <v>20</v>
       </c>
       <c r="I1242" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1242" s="1">
         <v>20</v>
@@ -65231,7 +65228,7 @@
         <v>30</v>
       </c>
       <c r="I1244" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1244" s="1">
         <v>30</v>
@@ -65278,7 +65275,7 @@
         <v>30</v>
       </c>
       <c r="I1245" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1245" s="1">
         <v>30</v>
@@ -65325,7 +65322,7 @@
         <v>30</v>
       </c>
       <c r="I1246" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1246" s="1">
         <v>30</v>
@@ -65372,7 +65369,7 @@
         <v>30</v>
       </c>
       <c r="I1247" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1247" s="1">
         <v>30</v>
@@ -65419,7 +65416,7 @@
         <v>30</v>
       </c>
       <c r="I1248" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1248" s="1">
         <v>30</v>
@@ -65466,7 +65463,7 @@
         <v>30</v>
       </c>
       <c r="I1249" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1249" s="1">
         <v>30</v>
@@ -65513,7 +65510,7 @@
         <v>10</v>
       </c>
       <c r="I1250" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1250" s="1">
         <v>10</v>
@@ -65560,7 +65557,7 @@
         <v>10</v>
       </c>
       <c r="I1251" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1251" s="1">
         <v>10</v>
@@ -65607,7 +65604,7 @@
         <v>20</v>
       </c>
       <c r="I1252" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1252" s="1">
         <v>20</v>
@@ -65654,7 +65651,7 @@
         <v>20</v>
       </c>
       <c r="I1253" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1253" s="1">
         <v>20</v>
@@ -65748,7 +65745,7 @@
         <v>30</v>
       </c>
       <c r="I1255" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1255" s="1">
         <v>30</v>
@@ -65795,7 +65792,7 @@
         <v>12</v>
       </c>
       <c r="I1256" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J1256" s="1">
         <v>12</v>
@@ -65842,7 +65839,7 @@
         <v>5</v>
       </c>
       <c r="I1257" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1257" s="1">
         <v>5</v>
@@ -65889,7 +65886,7 @@
         <v>10</v>
       </c>
       <c r="I1258" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1258" s="1">
         <v>10</v>
@@ -65936,7 +65933,7 @@
         <v>5</v>
       </c>
       <c r="I1259" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1259" s="1">
         <v>5</v>
@@ -65983,7 +65980,7 @@
         <v>12</v>
       </c>
       <c r="I1260" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J1260" s="1">
         <v>12</v>
@@ -66030,7 +66027,7 @@
         <v>10</v>
       </c>
       <c r="I1261" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1261" s="1">
         <v>10</v>
@@ -66077,7 +66074,7 @@
         <v>10</v>
       </c>
       <c r="I1262" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J1262" s="1">
         <v>10</v>
@@ -66124,7 +66121,7 @@
         <v>5</v>
       </c>
       <c r="I1263" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1263" s="1">
         <v>5</v>
@@ -66171,7 +66168,7 @@
         <v>30</v>
       </c>
       <c r="I1264" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1264" s="1">
         <v>30</v>
@@ -67205,7 +67202,7 @@
         <v>30</v>
       </c>
       <c r="I1286" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1286" s="1">
         <v>30</v>
@@ -67252,7 +67249,7 @@
         <v>30</v>
       </c>
       <c r="I1287" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1287" s="1">
         <v>30</v>
@@ -67299,7 +67296,7 @@
         <v>15</v>
       </c>
       <c r="I1288" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J1288" s="1">
         <v>15</v>
@@ -67346,7 +67343,7 @@
         <v>30</v>
       </c>
       <c r="I1289" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1289" s="1">
         <v>30</v>
@@ -67393,7 +67390,7 @@
         <v>30</v>
       </c>
       <c r="I1290" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1290" s="1">
         <v>30</v>
@@ -67440,7 +67437,7 @@
         <v>90</v>
       </c>
       <c r="I1291" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J1291" s="1">
         <v>90</v>
@@ -67772,13 +67769,13 @@
         <v>0</v>
       </c>
       <c r="J1298" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1298" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1298" s="4" t="s">
-        <v>5</v>
+      <c r="L1298" s="4">
+        <v>45625</v>
       </c>
       <c r="M1298" s="4" t="s">
         <v>5</v>
@@ -68004,7 +68001,7 @@
         <v>100</v>
       </c>
       <c r="I1303" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J1303" s="1">
         <v>100</v>
@@ -68430,13 +68427,13 @@
         <v>0</v>
       </c>
       <c r="J1312" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1312" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1312" s="4" t="s">
-        <v>5</v>
+      <c r="L1312" s="4">
+        <v>45625</v>
       </c>
       <c r="M1312" s="4" t="s">
         <v>5</v>
@@ -70028,13 +70025,13 @@
         <v>0</v>
       </c>
       <c r="J1346" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K1346" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1346" s="4" t="s">
-        <v>5</v>
+      <c r="L1346" s="4">
+        <v>45625</v>
       </c>
       <c r="M1346" s="4" t="s">
         <v>5</v>
@@ -70075,13 +70072,13 @@
         <v>0</v>
       </c>
       <c r="J1347" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K1347" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1347" s="4" t="s">
-        <v>5</v>
+      <c r="L1347" s="4">
+        <v>45625</v>
       </c>
       <c r="M1347" s="4" t="s">
         <v>5</v>
@@ -73976,13 +73973,13 @@
         <v>0</v>
       </c>
       <c r="J1430" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1430" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1430" s="4" t="s">
-        <v>5</v>
+      <c r="L1430" s="4">
+        <v>45625</v>
       </c>
       <c r="M1430" s="4" t="s">
         <v>5</v>
@@ -75198,13 +75195,13 @@
         <v>0</v>
       </c>
       <c r="J1456" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K1456" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1456" s="4" t="s">
-        <v>5</v>
+      <c r="L1456" s="4">
+        <v>45625</v>
       </c>
       <c r="M1456" s="4" t="s">
         <v>5</v>
@@ -75292,13 +75289,13 @@
         <v>0</v>
       </c>
       <c r="J1458" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K1458" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1458" s="4" t="s">
-        <v>5</v>
+      <c r="L1458" s="4">
+        <v>45625</v>
       </c>
       <c r="M1458" s="4" t="s">
         <v>5</v>
@@ -75383,7 +75380,7 @@
         <v>20</v>
       </c>
       <c r="I1460" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1460" s="1">
         <v>20</v>
@@ -75433,13 +75430,13 @@
         <v>0</v>
       </c>
       <c r="J1461" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K1461" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1461" s="4" t="s">
-        <v>5</v>
+      <c r="L1461" s="4">
+        <v>45625</v>
       </c>
       <c r="M1461" s="4" t="s">
         <v>5</v>
@@ -75621,13 +75618,13 @@
         <v>0</v>
       </c>
       <c r="J1465" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K1465" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1465" s="4" t="s">
-        <v>5</v>
+      <c r="L1465" s="4">
+        <v>45625</v>
       </c>
       <c r="M1465" s="4" t="s">
         <v>5</v>
@@ -75668,13 +75665,13 @@
         <v>0</v>
       </c>
       <c r="J1466" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K1466" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1466" s="4" t="s">
-        <v>5</v>
+      <c r="L1466" s="4">
+        <v>45625</v>
       </c>
       <c r="M1466" s="4" t="s">
         <v>5</v>
@@ -75712,7 +75709,7 @@
         <v>20</v>
       </c>
       <c r="I1467" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1467" s="1">
         <v>20</v>
@@ -75947,7 +75944,7 @@
         <v>125</v>
       </c>
       <c r="I1472" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J1472" s="1">
         <v>125</v>
@@ -76652,16 +76649,16 @@
         <v>100</v>
       </c>
       <c r="I1487" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J1487" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1487" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L1487" s="4">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="M1487" s="4" t="s">
         <v>5</v>
@@ -76937,13 +76934,13 @@
         <v>0</v>
       </c>
       <c r="J1493" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K1493" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1493" s="4" t="s">
-        <v>5</v>
+      <c r="L1493" s="4">
+        <v>45625</v>
       </c>
       <c r="M1493" s="4" t="s">
         <v>5</v>
@@ -77075,7 +77072,7 @@
         <v>20</v>
       </c>
       <c r="I1496" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1496" s="1">
         <v>20</v>
@@ -77216,7 +77213,7 @@
         <v>20</v>
       </c>
       <c r="I1499" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1499" s="1">
         <v>20</v>
@@ -77407,13 +77404,13 @@
         <v>0</v>
       </c>
       <c r="J1503" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K1503" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1503" s="4" t="s">
-        <v>5</v>
+      <c r="L1503" s="4">
+        <v>45625</v>
       </c>
       <c r="M1503" s="4" t="s">
         <v>5</v>
@@ -77454,13 +77451,13 @@
         <v>0</v>
       </c>
       <c r="J1504" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K1504" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1504" s="4" t="s">
-        <v>5</v>
+      <c r="L1504" s="4">
+        <v>45625</v>
       </c>
       <c r="M1504" s="4" t="s">
         <v>5</v>
@@ -77736,13 +77733,13 @@
         <v>0</v>
       </c>
       <c r="J1510" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1510" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1510" s="4" t="s">
-        <v>5</v>
+      <c r="L1510" s="4">
+        <v>45625</v>
       </c>
       <c r="M1510" s="4" t="s">
         <v>5</v>
@@ -77783,13 +77780,13 @@
         <v>0</v>
       </c>
       <c r="J1511" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K1511" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1511" s="4" t="s">
-        <v>5</v>
+      <c r="L1511" s="4">
+        <v>45625</v>
       </c>
       <c r="M1511" s="4" t="s">
         <v>5</v>
@@ -77877,13 +77874,13 @@
         <v>0</v>
       </c>
       <c r="J1513" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K1513" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1513" s="4" t="s">
-        <v>5</v>
+      <c r="L1513" s="4">
+        <v>45625</v>
       </c>
       <c r="M1513" s="4" t="s">
         <v>5</v>
@@ -78015,7 +78012,7 @@
         <v>100</v>
       </c>
       <c r="I1516" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J1516" s="1">
         <v>100</v>
@@ -78062,7 +78059,7 @@
         <v>20</v>
       </c>
       <c r="I1517" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1517" s="1">
         <v>20</v>
@@ -78112,13 +78109,13 @@
         <v>0</v>
       </c>
       <c r="J1518" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K1518" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1518" s="4" t="s">
-        <v>5</v>
+      <c r="L1518" s="4">
+        <v>45625</v>
       </c>
       <c r="M1518" s="4" t="s">
         <v>5</v>
@@ -78159,13 +78156,13 @@
         <v>0</v>
       </c>
       <c r="J1519" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K1519" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1519" s="4" t="s">
-        <v>5</v>
+      <c r="L1519" s="4">
+        <v>45625</v>
       </c>
       <c r="M1519" s="4" t="s">
         <v>5</v>
@@ -78203,7 +78200,7 @@
         <v>20</v>
       </c>
       <c r="I1520" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1520" s="1">
         <v>20</v>
@@ -78250,7 +78247,7 @@
         <v>8</v>
       </c>
       <c r="I1521" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J1521" s="1">
         <v>8</v>
@@ -78394,13 +78391,13 @@
         <v>0</v>
       </c>
       <c r="J1524" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K1524" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1524" s="4" t="s">
-        <v>5</v>
+      <c r="L1524" s="4">
+        <v>45625</v>
       </c>
       <c r="M1524" s="4" t="s">
         <v>5</v>
@@ -78582,13 +78579,13 @@
         <v>0</v>
       </c>
       <c r="J1528" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K1528" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1528" s="4" t="s">
-        <v>5</v>
+      <c r="L1528" s="4">
+        <v>45625</v>
       </c>
       <c r="M1528" s="4" t="s">
         <v>5</v>
@@ -79425,7 +79422,7 @@
         <v>125</v>
       </c>
       <c r="I1546" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J1546" s="1">
         <v>125</v>
@@ -81120,13 +81117,13 @@
         <v>0</v>
       </c>
       <c r="J1582" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1582" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1582" s="4">
-        <v>45624</v>
+      <c r="L1582" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1582" s="4" t="s">
         <v>5</v>
@@ -81402,13 +81399,13 @@
         <v>0</v>
       </c>
       <c r="J1588" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1588" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1588" s="4">
-        <v>45624</v>
+      <c r="L1588" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1588" s="4" t="s">
         <v>5</v>
@@ -82624,13 +82621,13 @@
         <v>0</v>
       </c>
       <c r="J1614" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K1614" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1614" s="4">
-        <v>45624</v>
+      <c r="L1614" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1614" s="4" t="s">
         <v>5</v>
@@ -82953,13 +82950,13 @@
         <v>0</v>
       </c>
       <c r="J1621" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1621" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1621" s="4">
-        <v>45624</v>
+      <c r="L1621" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1621" s="4" t="s">
         <v>5</v>
@@ -83376,13 +83373,13 @@
         <v>0</v>
       </c>
       <c r="J1630" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1630" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1630" s="4">
-        <v>45624</v>
+      <c r="L1630" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="M1630" s="4" t="s">
         <v>5</v>
@@ -84775,7 +84772,7 @@
       <c r="O1660" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1659" xr:uid="{AC334CDE-9BE2-41B6-A2F3-9C838CFC5E4A}"/>
+  <autoFilter ref="A1:O1659" xr:uid="{DAA902E7-E144-445B-9F04-EA9962645622}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392DADC-8C4E-4C6E-B2AB-86087E29173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D987F-0EC4-4401-B559-5C6B384E29E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11235" xr2:uid="{23EE01DF-D417-4B5B-8129-A8A93F9A9C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11235" xr2:uid="{111946A5-0909-43AC-AAC1-B559817B5472}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12480" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12472" uniqueCount="1986">
   <si>
     <t>300924</t>
   </si>
@@ -6394,16 +6394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ECF80F-8926-49C7-80AC-64056326FF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DCEA44-B887-4077-BA72-887E16B442D8}">
   <dimension ref="A1:O1759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -6964,13 +6964,13 @@
         <v>200</v>
       </c>
       <c r="J12" s="1">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="4">
-        <v>45593</v>
+        <v>45639</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>5</v>
@@ -33892,7 +33892,7 @@
         <v>30</v>
       </c>
       <c r="I585" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J585" s="1">
         <v>30</v>
@@ -33986,7 +33986,7 @@
         <v>50</v>
       </c>
       <c r="I587" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J587" s="1">
         <v>50</v>
@@ -34174,7 +34174,7 @@
         <v>10</v>
       </c>
       <c r="I591" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J591" s="1">
         <v>10</v>
@@ -34456,7 +34456,7 @@
         <v>50</v>
       </c>
       <c r="I597" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J597" s="1">
         <v>20</v>
@@ -34879,7 +34879,7 @@
         <v>20</v>
       </c>
       <c r="I606" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J606" s="1">
         <v>20</v>
@@ -35537,7 +35537,7 @@
         <v>30</v>
       </c>
       <c r="I620" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J620" s="1">
         <v>30</v>
@@ -36148,7 +36148,7 @@
         <v>30</v>
       </c>
       <c r="I633" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J633" s="1">
         <v>30</v>
@@ -36383,7 +36383,7 @@
         <v>50</v>
       </c>
       <c r="I638" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J638" s="1">
         <v>50</v>
@@ -36571,7 +36571,7 @@
         <v>50</v>
       </c>
       <c r="I642" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J642" s="1">
         <v>10</v>
@@ -38874,7 +38874,7 @@
         <v>30</v>
       </c>
       <c r="I691" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J691" s="1">
         <v>30</v>
@@ -40049,7 +40049,7 @@
         <v>10</v>
       </c>
       <c r="I716" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J716" s="1">
         <v>10</v>
@@ -41929,7 +41929,7 @@
         <v>10</v>
       </c>
       <c r="I756" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J756" s="1">
         <v>10</v>
@@ -42446,7 +42446,7 @@
         <v>20</v>
       </c>
       <c r="I767" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J767" s="1">
         <v>20</v>
@@ -42869,7 +42869,7 @@
         <v>10</v>
       </c>
       <c r="I776" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J776" s="1">
         <v>10</v>
@@ -43057,7 +43057,7 @@
         <v>10</v>
       </c>
       <c r="I780" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J780" s="1">
         <v>10</v>
@@ -43668,7 +43668,7 @@
         <v>50</v>
       </c>
       <c r="I793" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J793" s="1">
         <v>50</v>
@@ -45830,7 +45830,7 @@
         <v>20</v>
       </c>
       <c r="I839" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J839" s="1">
         <v>20</v>
@@ -46253,7 +46253,7 @@
         <v>20</v>
       </c>
       <c r="I848" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J848" s="1">
         <v>20</v>
@@ -46441,7 +46441,7 @@
         <v>50</v>
       </c>
       <c r="I852" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J852" s="1">
         <v>50</v>
@@ -46629,7 +46629,7 @@
         <v>50</v>
       </c>
       <c r="I856" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J856" s="1">
         <v>50</v>
@@ -48650,7 +48650,7 @@
         <v>30</v>
       </c>
       <c r="I899" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J899" s="1">
         <v>30</v>
@@ -48885,7 +48885,7 @@
         <v>30</v>
       </c>
       <c r="I904" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J904" s="1">
         <v>30</v>
@@ -48932,7 +48932,7 @@
         <v>30</v>
       </c>
       <c r="I905" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J905" s="1">
         <v>30</v>
@@ -48979,7 +48979,7 @@
         <v>30</v>
       </c>
       <c r="I906" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J906" s="1">
         <v>30</v>
@@ -49026,7 +49026,7 @@
         <v>30</v>
       </c>
       <c r="I907" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J907" s="1">
         <v>30</v>
@@ -49731,7 +49731,7 @@
         <v>30</v>
       </c>
       <c r="I922" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J922" s="1">
         <v>30</v>
@@ -50812,7 +50812,7 @@
         <v>30</v>
       </c>
       <c r="I945" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J945" s="1">
         <v>30</v>
@@ -50953,7 +50953,7 @@
         <v>30</v>
       </c>
       <c r="I948" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J948" s="1">
         <v>30</v>
@@ -52598,7 +52598,7 @@
         <v>10</v>
       </c>
       <c r="I983" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J983" s="1">
         <v>10</v>
@@ -57392,7 +57392,7 @@
         <v>200</v>
       </c>
       <c r="I1085" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J1085" s="1">
         <v>130</v>
@@ -67594,13 +67594,13 @@
         <v>0</v>
       </c>
       <c r="J1302" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K1302" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1302" s="4" t="s">
-        <v>5</v>
+      <c r="L1302" s="4">
+        <v>45639</v>
       </c>
       <c r="M1302" s="4" t="s">
         <v>5</v>
@@ -75349,13 +75349,13 @@
         <v>0</v>
       </c>
       <c r="J1467" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K1467" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1467" s="4" t="s">
-        <v>5</v>
+      <c r="L1467" s="4">
+        <v>45639</v>
       </c>
       <c r="M1467" s="4" t="s">
         <v>5</v>
@@ -76477,13 +76477,13 @@
         <v>0</v>
       </c>
       <c r="J1491" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1491" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1491" s="4" t="s">
-        <v>5</v>
+      <c r="L1491" s="4">
+        <v>45639</v>
       </c>
       <c r="M1491" s="4" t="s">
         <v>5</v>
@@ -79203,13 +79203,13 @@
         <v>130</v>
       </c>
       <c r="J1549" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K1549" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1549" s="4">
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="M1549" s="4" t="s">
         <v>5</v>
@@ -82493,13 +82493,13 @@
         <v>0</v>
       </c>
       <c r="J1619" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1619" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1619" s="4" t="s">
-        <v>5</v>
+      <c r="L1619" s="4">
+        <v>45639</v>
       </c>
       <c r="M1619" s="4" t="s">
         <v>5</v>
@@ -83480,13 +83480,13 @@
         <v>0</v>
       </c>
       <c r="J1640" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1640" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1640" s="4" t="s">
-        <v>5</v>
+      <c r="L1640" s="4">
+        <v>45639</v>
       </c>
       <c r="M1640" s="4" t="s">
         <v>5</v>
@@ -86112,13 +86112,13 @@
         <v>0</v>
       </c>
       <c r="J1696" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K1696" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1696" s="4" t="s">
-        <v>5</v>
+      <c r="L1696" s="4">
+        <v>45639</v>
       </c>
       <c r="M1696" s="4" t="s">
         <v>5</v>
@@ -87475,13 +87475,13 @@
         <v>0</v>
       </c>
       <c r="J1725" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K1725" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1725" s="4" t="s">
-        <v>5</v>
+      <c r="L1725" s="4">
+        <v>45639</v>
       </c>
       <c r="M1725" s="4" t="s">
         <v>5</v>
@@ -88791,13 +88791,13 @@
         <v>0</v>
       </c>
       <c r="J1753" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K1753" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1753" s="4" t="s">
-        <v>5</v>
+      <c r="L1753" s="4">
+        <v>45639</v>
       </c>
       <c r="M1753" s="4" t="s">
         <v>5</v>
@@ -89062,7 +89062,7 @@
       <c r="O1759" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1758" xr:uid="{57ECF80F-8926-49C7-80AC-64056326FF1C}"/>
+  <autoFilter ref="A1:O1758" xr:uid="{D6DCEA44-B887-4077-BA72-887E16B442D8}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/planilha/ABASTECIDOS.XLSX
+++ b/planilha/ABASTECIDOS.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USERS\FOXMI\ONEDRIVE\ÁREA DE TRABALHO\SISTEMA FOXMIX\PLANILHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA615F-02BB-4FDB-8FBF-A5829234D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED10E7-E421-4D89-8EF4-AD7B7A2726F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="1440" windowWidth="10380" windowHeight="7875" xr2:uid="{645129DA-DCD7-4A66-8E5A-44AA74E4F716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11235" xr2:uid="{58B5F7F0-CBF2-4D02-ACC6-E4F8FE677BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="227">
   <si>
     <t>4501667005</t>
   </si>
@@ -648,6 +648,30 @@
   </si>
   <si>
     <t>DOBRADIÇA DE PRESSÃO 26MM ALTA - PQN CT01PÇ</t>
+  </si>
+  <si>
+    <t>OPD13-9280768</t>
+  </si>
+  <si>
+    <t>DIV255A</t>
+  </si>
+  <si>
+    <t>DIVISOR DE SINAL CABO COAXIAL 2X75 CT01PÇ</t>
+  </si>
+  <si>
+    <t>BOT196A</t>
+  </si>
+  <si>
+    <t>BOTÃO FRANCES ABS CROM CT04PC</t>
+  </si>
+  <si>
+    <t>4501652410</t>
+  </si>
+  <si>
+    <t>PIB276-1S</t>
+  </si>
+  <si>
+    <t>BUCHA 6MM NYLON C/ANEL C/PITÃO ZINC. 3,4X60 CT15PÇS</t>
   </si>
   <si>
     <t>X</t>
@@ -1090,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69C9127-7264-48B0-82FE-22BED4160C27}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B3F2D-8B2D-421F-880A-A3D545BBB4FF}">
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,49 +1140,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2973,7 +2997,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J40" s="1">
         <v>35</v>
@@ -5702,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L98" s="4" t="s">
-        <v>5</v>
+      <c r="L98" s="4">
+        <v>45670</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>5</v>
@@ -5749,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L99" s="4" t="s">
-        <v>5</v>
+      <c r="L99" s="4">
+        <v>45670</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>5</v>
@@ -5768,21 +5792,162 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="2"/>
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>101112</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="3">
+        <v>9825200</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="1">
+        <v>100</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>100</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="4">
+        <v>45670</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="4">
+        <v>45677</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>101113</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="3">
+        <v>9825100</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="1">
+        <v>100</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>100</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101" s="4">
+        <v>45670</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="4">
+        <v>45677</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="3">
+        <v>9825300</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="1">
+        <v>50</v>
+      </c>
+      <c r="I102" s="1">
+        <v>50</v>
+      </c>
+      <c r="J102" s="1">
+        <v>50</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" s="4">
+        <v>45670</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="4">
+        <v>45670</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
